--- a/板块个股.xlsx
+++ b/板块个股.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="0" yWindow="60" windowWidth="18315" windowHeight="6480"/>
   </bookViews>
   <sheets>
-    <sheet name="20170519" sheetId="1" r:id="rId1"/>
+    <sheet name="20170522" sheetId="2" r:id="rId1"/>
+    <sheet name="20170519" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -41,8 +42,33 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Yuchuan Dang</author>
+  </authors>
+  <commentList>
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="38">
   <si>
     <t>最后交易日</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -203,7 +229,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="179" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -873,7 +899,7 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1247,7 +1273,629 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10">
+        <v>20170522</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="10">
+        <v>20170519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>20170522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>20170505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>20170101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>600009</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <f>[1]!i_dq_close(A9,"")</f>
+        <v>38.19</v>
+      </c>
+      <c r="D9" s="4">
+        <f>[1]!s_pq_pctchange(A9,B1,B1)/100</f>
+        <v>1.2716174974567673E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <f>[1]!s_pq_pctchange(A9,B2,B1)/100</f>
+        <v>1.2716174974567673E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <f>[1]!s_pq_pctchange(A$9,$B3,$B$1)/100</f>
+        <v>9.8482758620689767E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <f>[1]!s_pq_pctchange(A9,$B4,$B$1)/100</f>
+        <v>0.5015082956259429</v>
+      </c>
+      <c r="H9" s="4">
+        <f>[1]!s_pq_turn(A9,B2,B1)/100</f>
+        <v>5.0113573690607968E-3</v>
+      </c>
+      <c r="I9" s="4">
+        <f>[1]!s_pq_turn(A9,B3,$B$1)/100</f>
+        <v>7.7012089361083863E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <f>[1]!s_pq_turn(A9,$B$4,$B$1)/100</f>
+        <v>0.56014912775478964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <f>[1]!i_dq_close(A10,"")</f>
+        <v>16.82</v>
+      </c>
+      <c r="D10" s="4">
+        <f>[1]!s_pq_pctchange(A10,B2,B2)/100</f>
+        <v>4.1322314049587749E-3</v>
+      </c>
+      <c r="E10" s="4">
+        <f>[1]!s_pq_pctchange(A10,B3,B2)/100</f>
+        <v>1.9173157579388977E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <f>[1]!s_pq_pctchange($A10,$B$3,$B$1)/100</f>
+        <v>1.9173157579388977E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <f>[1]!s_pq_pctchange(A10,$B4,$B$1)/100</f>
+        <v>0.20723917672107905</v>
+      </c>
+      <c r="H10" s="4">
+        <f>[1]!s_pq_turn(A10,B3,B1)/100</f>
+        <v>0.15667905812793453</v>
+      </c>
+      <c r="I10" s="4">
+        <f>[1]!s_pq_turn(A10,B3,$B$1)/100</f>
+        <v>0.15667905812793453</v>
+      </c>
+      <c r="J10" s="4">
+        <f>[1]!s_pq_turn(A10,$B$4,$B$1)/100</f>
+        <v>0.78132133657736658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <f>[1]!i_dq_close(A11,"")</f>
+        <v>24.57</v>
+      </c>
+      <c r="D11" s="4">
+        <f>[1]!s_pq_pctchange(A11,B3,B3)/100</f>
+        <v>-1.1166253101736912E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <f>[1]!s_pq_pctchange(A11,B4,B3)/100</f>
+        <v>5.7496682883679817E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <f>[1]!s_pq_pctchange($A11,$B$3,$B$1)/100</f>
+        <v>-4.1356492969396585E-3</v>
+      </c>
+      <c r="G11" s="4">
+        <f>[1]!s_pq_pctchange(A11,$B4,$B$1)/100</f>
+        <v>6.5015479876160853E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <f>[1]!s_pq_turn(A11,B2,$B$1)/100</f>
+        <v>7.2626607568584004E-3</v>
+      </c>
+      <c r="I11" s="4">
+        <f>[1]!s_pq_turn(A11,B3,$B$1)/100</f>
+        <v>7.2032322621805839E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <f>[1]!s_pq_turn(A11,$B$4,$B$1)/100</f>
+        <v>0.79895096873845728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11">
+        <f>[1]!s_techanal_limitupdays(A14,$B$2,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <f>[1]!s_techanal_limitdowndays(A14,$B$2,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f>[1]!s_techanal_limitupdays(A14,$B$3,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <f>[1]!s_techanal_limitdowndays(A14,$B$4,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f>[1]!s_techanal_limitupdays(A14,$B$4,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <f>[1]!s_techanal_limitdowndays(A14,$B$4,$B$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11">
+        <f>[1]!s_techanal_limitupdays(A15,$B$2,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <f>[1]!s_techanal_limitdowndays(A15,$B$2,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <f>[1]!s_techanal_limitupdays(A15,$B$3,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <f>[1]!s_techanal_limitdowndays(A15,$B$4,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <f>[1]!s_techanal_limitupdays(A15,$B$4,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <f>[1]!s_techanal_limitdowndays(A15,$B$4,$B$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11">
+        <f>[1]!s_techanal_limitupdays(A16,$B$2,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <f>[1]!s_techanal_limitdowndays(A16,$B$2,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <f>[1]!s_techanal_limitupdays(A16,$B$3,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <f>[1]!s_techanal_limitdowndays(A16,$B$4,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <f>[1]!s_techanal_limitupdays(A16,$B$4,$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <f>[1]!s_techanal_limitdowndays(A16,$B$4,$B$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>600009</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4">
+        <f>[1]!s_pq_relpctchange(A19,$D$1,$B$1,1)/100</f>
+        <v>4.8181549645311739E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <f>[1]!s_pq_relpctchange(A19,$B$2,$B$1,1)/100</f>
+        <v>1.7555089902908105E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f>[1]!s_pq_relpctchange(A19,$B$3,$B$1,1)/100</f>
+        <v>0.11501202170374102</v>
+      </c>
+      <c r="F19" s="4">
+        <f>[1]!s_pq_relpctchange(A19,$B$4,$B$1,1)/100</f>
+        <v>0.51051762799863987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4">
+        <f>[1]!s_pq_relpctchange(A20,$D$1,$B$1,1)/100</f>
+        <v>9.405841061068454E-3</v>
+      </c>
+      <c r="D20" s="4">
+        <f>[1]!s_pq_relpctchange(A20,$B$2,$B$1,1)/100</f>
+        <v>8.971146333299207E-3</v>
+      </c>
+      <c r="E20" s="4">
+        <f>[1]!s_pq_relpctchange(A20,$B$3,$B$1,1)/100</f>
+        <v>3.5702420662440226E-2</v>
+      </c>
+      <c r="F20" s="4">
+        <f>[1]!s_pq_relpctchange(A20,$B$4,$B$1,1)/100</f>
+        <v>0.21624850909377602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <f>[1]!s_pq_relpctchange(A21,$D$1,$B$1,1)/100</f>
+        <v>1.3478155386226209E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <f>[1]!s_pq_relpctchange(A21,$B$2,$B$1,1)/100</f>
+        <v>8.1722482616736203E-3</v>
+      </c>
+      <c r="E21" s="4">
+        <f>[1]!s_pq_relpctchange(A21,$B$3,$B$1,1)/100</f>
+        <v>1.239361378611159E-2</v>
+      </c>
+      <c r="F21" s="4">
+        <f>[1]!s_pq_relpctchange(A21,$B$4,$B$1,1)/100</f>
+        <v>7.4024812248857819E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>600009</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5">
+        <f>[1]!s_pq_high(A25,$B$2,$B$1,3)</f>
+        <v>39.869999999999997</v>
+      </c>
+      <c r="D25" s="5">
+        <f>[1]!s_pq_low(A25,$B$2,$B$1,3)</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E25" s="5">
+        <f>[1]!s_pq_high(A25,$B$3,$B$1,3)</f>
+        <v>39.869999999999997</v>
+      </c>
+      <c r="F25" s="5">
+        <f>[1]!s_pq_low(A25,$B$3,$B$1,3)</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G25" s="5">
+        <f>[1]!s_pq_high(A25,$B$4,$B$1,3)</f>
+        <v>39.869999999999997</v>
+      </c>
+      <c r="H25" s="5">
+        <f>[1]!s_pq_low(A25,$B$4,$B$1,3)</f>
+        <v>26.4</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5">
+        <f>[1]!s_pq_high(A26,$B$2,$B$1,3)</f>
+        <v>17.05</v>
+      </c>
+      <c r="D26" s="5">
+        <f>[1]!s_pq_low(A26,$B$2,$B$1,3)</f>
+        <v>16.66</v>
+      </c>
+      <c r="E26" s="5">
+        <f>[1]!s_pq_high(A26,$B$3,$B$1,3)</f>
+        <v>17.18</v>
+      </c>
+      <c r="F26" s="5">
+        <f>[1]!s_pq_low(A26,$B$3,$B$1,3)</f>
+        <v>15.81</v>
+      </c>
+      <c r="G26" s="5">
+        <f>[1]!s_pq_high(A26,$B$4,$B$1,3)</f>
+        <v>17.18</v>
+      </c>
+      <c r="H26" s="5">
+        <f>[1]!s_pq_low(A26,$B$4,$B$1,3)</f>
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="5">
+        <f>[1]!s_pq_high(A27,$B$2,$B$1,3)</f>
+        <v>24.23</v>
+      </c>
+      <c r="D27" s="5">
+        <f>[1]!s_pq_low(A27,$B$2,$B$1,3)</f>
+        <v>23.65</v>
+      </c>
+      <c r="E27" s="5">
+        <f>[1]!s_pq_high(A27,$B$3,$B$1,3)</f>
+        <v>24.23</v>
+      </c>
+      <c r="F27" s="5">
+        <f>[1]!s_pq_low(A27,$B$3,$B$1,3)</f>
+        <v>22.64</v>
+      </c>
+      <c r="G27" s="5">
+        <f>[1]!s_pq_high(A27,$B$4,$B$1,3)</f>
+        <v>27.19</v>
+      </c>
+      <c r="H27" s="5">
+        <f>[1]!s_pq_low(A27,$B$4,$B$1,3)</f>
+        <v>21.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="C25:H25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:H26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:H27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25:H27"/>
     </sheetView>
   </sheetViews>
@@ -1358,7 +2006,7 @@
       </c>
       <c r="C9" s="5">
         <f>[1]!i_dq_close(A9,"")</f>
-        <v>39.32</v>
+        <v>38.19</v>
       </c>
       <c r="D9" s="4">
         <f>[1]!s_pq_pctchange(A9,B1,B1)/100</f>
@@ -1398,7 +2046,7 @@
       </c>
       <c r="C10" s="5">
         <f>[1]!i_dq_close(A10,"")</f>
-        <v>16.940000000000001</v>
+        <v>16.82</v>
       </c>
       <c r="D10" s="4">
         <f>[1]!s_pq_pctchange(A10,B2,B2)/100</f>
@@ -1418,15 +2066,15 @@
       </c>
       <c r="H10" s="4">
         <f>[1]!s_pq_turn(A10,B3,B1)/100</f>
-        <v>0.14321436467203197</v>
+        <v>0.14209013216934843</v>
       </c>
       <c r="I10" s="4">
         <f>[1]!s_pq_turn(A10,B3,$B$1)/100</f>
-        <v>0.14321436467203197</v>
+        <v>0.14209013216934843</v>
       </c>
       <c r="J10" s="4">
         <f>[1]!s_pq_turn(A10,$B$4,$B$1)/100</f>
-        <v>0.76785664312146396</v>
+        <v>0.7667324106187805</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -1438,7 +2086,7 @@
       </c>
       <c r="C11" s="5">
         <f>[1]!i_dq_close(A11,"")</f>
-        <v>24</v>
+        <v>24.57</v>
       </c>
       <c r="D11" s="4">
         <f>[1]!s_pq_pctchange(A11,B3,B3)/100</f>
